--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N2">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P2">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q2">
-        <v>17.1565381257339</v>
+        <v>51.39165675806844</v>
       </c>
       <c r="R2">
-        <v>17.1565381257339</v>
+        <v>462.5249108226159</v>
       </c>
       <c r="S2">
-        <v>0.001098840818803147</v>
+        <v>0.002315011632008984</v>
       </c>
       <c r="T2">
-        <v>0.001098840818803147</v>
+        <v>0.002315011632008984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N3">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P3">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q3">
-        <v>39.91805965489866</v>
+        <v>71.44038936649422</v>
       </c>
       <c r="R3">
-        <v>39.91805965489866</v>
+        <v>642.963504298448</v>
       </c>
       <c r="S3">
-        <v>0.002556669243804416</v>
+        <v>0.003218135837831687</v>
       </c>
       <c r="T3">
-        <v>0.002556669243804416</v>
+        <v>0.003218135837831687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N4">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P4">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q4">
-        <v>56.34501504622897</v>
+        <v>167.28302330474</v>
       </c>
       <c r="R4">
-        <v>56.34501504622897</v>
+        <v>1505.54720974266</v>
       </c>
       <c r="S4">
-        <v>0.003608781795903562</v>
+        <v>0.007535506134997355</v>
       </c>
       <c r="T4">
-        <v>0.003608781795903562</v>
+        <v>0.007535506134997356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N5">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P5">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q5">
-        <v>132.3260350285298</v>
+        <v>233.7216887062382</v>
       </c>
       <c r="R5">
-        <v>132.3260350285298</v>
+        <v>2103.495198356144</v>
       </c>
       <c r="S5">
-        <v>0.00847520913683766</v>
+        <v>0.01052833207060944</v>
       </c>
       <c r="T5">
-        <v>0.00847520913683766</v>
+        <v>0.01052833207060944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N6">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P6">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q6">
-        <v>7.080334607139196</v>
+        <v>12.51716014837467</v>
       </c>
       <c r="R6">
-        <v>7.080334607139196</v>
+        <v>112.654441335372</v>
       </c>
       <c r="S6">
-        <v>0.0004534808024842299</v>
+        <v>0.0005638536130411331</v>
       </c>
       <c r="T6">
-        <v>0.0004534808024842299</v>
+        <v>0.0005638536130411331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N7">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P7">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q7">
-        <v>3.787594477289914</v>
+        <v>7.285287831199112</v>
       </c>
       <c r="R7">
-        <v>3.787594477289914</v>
+        <v>65.56759048079199</v>
       </c>
       <c r="S7">
-        <v>0.0002425876004948109</v>
+        <v>0.0003281763448716134</v>
       </c>
       <c r="T7">
-        <v>0.0002425876004948109</v>
+        <v>0.0003281763448716133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N8">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P8">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q8">
-        <v>789.7786178140429</v>
+        <v>1375.348499842077</v>
       </c>
       <c r="R8">
-        <v>789.7786178140429</v>
+        <v>12378.13649857869</v>
       </c>
       <c r="S8">
-        <v>0.05058368866212499</v>
+        <v>0.06195456570293656</v>
       </c>
       <c r="T8">
-        <v>0.05058368866212499</v>
+        <v>0.06195456570293656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N9">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P9">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q9">
-        <v>1837.575258424449</v>
+        <v>1911.894625345303</v>
       </c>
       <c r="R9">
-        <v>1837.575258424449</v>
+        <v>17207.05162810773</v>
       </c>
       <c r="S9">
-        <v>0.1176928985778797</v>
+        <v>0.08612406324407802</v>
       </c>
       <c r="T9">
-        <v>0.1176928985778797</v>
+        <v>0.08612406324407804</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N10">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P10">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q10">
-        <v>2593.768496756021</v>
+        <v>4476.844485366784</v>
       </c>
       <c r="R10">
-        <v>2593.768496756021</v>
+        <v>40291.60036830106</v>
       </c>
       <c r="S10">
-        <v>0.1661255130769149</v>
+        <v>0.2016659456438374</v>
       </c>
       <c r="T10">
-        <v>0.1661255130769149</v>
+        <v>0.2016659456438374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N11">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P11">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q11">
-        <v>6091.454597643334</v>
+        <v>6254.882489115599</v>
       </c>
       <c r="R11">
-        <v>6091.454597643334</v>
+        <v>56293.9424020404</v>
       </c>
       <c r="S11">
-        <v>0.3901450810601844</v>
+        <v>0.281760243444157</v>
       </c>
       <c r="T11">
-        <v>0.3901450810601844</v>
+        <v>0.281760243444157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N12">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P12">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q12">
-        <v>325.933870732335</v>
+        <v>334.9854532496136</v>
       </c>
       <c r="R12">
-        <v>325.933870732335</v>
+        <v>3014.869079246523</v>
       </c>
       <c r="S12">
-        <v>0.0208753909889311</v>
+        <v>0.01508990504971228</v>
       </c>
       <c r="T12">
-        <v>0.0208753909889311</v>
+        <v>0.01508990504971229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N13">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P13">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q13">
-        <v>174.3569191635023</v>
+        <v>194.9695791425198</v>
       </c>
       <c r="R13">
-        <v>174.3569191635023</v>
+        <v>1754.726212282678</v>
       </c>
       <c r="S13">
-        <v>0.01116720042315772</v>
+        <v>0.008782687153435016</v>
       </c>
       <c r="T13">
-        <v>0.01116720042315772</v>
+        <v>0.008782687153435016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N14">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P14">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q14">
-        <v>53.13170994652551</v>
+        <v>296.0649964248262</v>
       </c>
       <c r="R14">
-        <v>53.13170994652551</v>
+        <v>2664.584967823435</v>
       </c>
       <c r="S14">
-        <v>0.003402976243469513</v>
+        <v>0.01333667668627096</v>
       </c>
       <c r="T14">
-        <v>0.003402976243469513</v>
+        <v>0.01333667668627096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N15">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P15">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q15">
-        <v>123.6213711454363</v>
+        <v>411.564832827823</v>
       </c>
       <c r="R15">
-        <v>123.6213711454363</v>
+        <v>3704.083495450407</v>
       </c>
       <c r="S15">
-        <v>0.007917693400352479</v>
+        <v>0.01853953414671065</v>
       </c>
       <c r="T15">
-        <v>0.007917693400352479</v>
+        <v>0.01853953414671066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N16">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P16">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q16">
-        <v>174.4936521825724</v>
+        <v>963.7098864082897</v>
       </c>
       <c r="R16">
-        <v>174.4936521825724</v>
+        <v>8673.388977674609</v>
       </c>
       <c r="S16">
-        <v>0.01117595789051688</v>
+        <v>0.04341170800194104</v>
       </c>
       <c r="T16">
-        <v>0.01117595789051688</v>
+        <v>0.04341170800194105</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N17">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P17">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q17">
-        <v>409.797621174165</v>
+        <v>1346.460015036447</v>
       </c>
       <c r="R17">
-        <v>409.797621174165</v>
+        <v>12118.14013532802</v>
       </c>
       <c r="S17">
-        <v>0.02624669092881692</v>
+        <v>0.06065324205285498</v>
       </c>
       <c r="T17">
-        <v>0.02624669092881692</v>
+        <v>0.06065324205285499</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N18">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P18">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q18">
-        <v>21.92693432170917</v>
+        <v>72.11079012345131</v>
       </c>
       <c r="R18">
-        <v>21.92693432170917</v>
+        <v>648.9971111110618</v>
       </c>
       <c r="S18">
-        <v>0.001404374838754311</v>
+        <v>0.003248335011167729</v>
       </c>
       <c r="T18">
-        <v>0.001404374838754311</v>
+        <v>0.00324833501116773</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N19">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P19">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q19">
-        <v>11.72971899619879</v>
+        <v>41.97021173790355</v>
       </c>
       <c r="R19">
-        <v>11.72971899619879</v>
+        <v>377.7319056411319</v>
       </c>
       <c r="S19">
-        <v>0.0007512642662321804</v>
+        <v>0.00189060899181602</v>
       </c>
       <c r="T19">
-        <v>0.0007512642662321804</v>
+        <v>0.00189060899181602</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N20">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P20">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q20">
-        <v>63.98700761592277</v>
+        <v>109.7842781651698</v>
       </c>
       <c r="R20">
-        <v>63.98700761592277</v>
+        <v>988.0585034865279</v>
       </c>
       <c r="S20">
-        <v>0.004098235630414286</v>
+        <v>0.00494539185923747</v>
       </c>
       <c r="T20">
-        <v>0.004098235630414286</v>
+        <v>0.00494539185923747</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N21">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P21">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q21">
-        <v>148.8783557866864</v>
+        <v>152.6129351182649</v>
       </c>
       <c r="R21">
-        <v>148.8783557866864</v>
+        <v>1373.516416064384</v>
       </c>
       <c r="S21">
-        <v>0.009535351081657142</v>
+        <v>0.006874670759438936</v>
       </c>
       <c r="T21">
-        <v>0.009535351081657142</v>
+        <v>0.006874670759438938</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N22">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P22">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q22">
-        <v>210.14431235836</v>
+        <v>357.35461982192</v>
       </c>
       <c r="R22">
-        <v>210.14431235836</v>
+        <v>3216.19157839728</v>
       </c>
       <c r="S22">
-        <v>0.01345930901481367</v>
+        <v>0.0160975565651522</v>
       </c>
       <c r="T22">
-        <v>0.01345930901481367</v>
+        <v>0.0160975565651522</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N23">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P23">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q23">
-        <v>493.5230492948415</v>
+        <v>499.2827339066168</v>
       </c>
       <c r="R23">
-        <v>493.5230492948415</v>
+        <v>4493.544605159552</v>
       </c>
       <c r="S23">
-        <v>0.03160913160982888</v>
+        <v>0.02249091408156632</v>
       </c>
       <c r="T23">
-        <v>0.03160913160982888</v>
+        <v>0.02249091408156632</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N24">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P24">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q24">
-        <v>26.40680894420928</v>
+        <v>26.73950361313067</v>
       </c>
       <c r="R24">
-        <v>26.40680894420928</v>
+        <v>240.655532518176</v>
       </c>
       <c r="S24">
-        <v>0.0016913015521884</v>
+        <v>0.001204519678942344</v>
       </c>
       <c r="T24">
-        <v>0.0016913015521884</v>
+        <v>0.001204519678942344</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N25">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O25">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P25">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q25">
-        <v>14.12620861436226</v>
+        <v>15.56303330594844</v>
       </c>
       <c r="R25">
-        <v>14.12620861436226</v>
+        <v>140.067299753536</v>
       </c>
       <c r="S25">
-        <v>0.0009047544747449395</v>
+        <v>0.0007010593821137597</v>
       </c>
       <c r="T25">
-        <v>0.0009047544747449395</v>
+        <v>0.0007010593821137597</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N26">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O26">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P26">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q26">
-        <v>59.30441836380989</v>
+        <v>119.8746322676664</v>
       </c>
       <c r="R26">
-        <v>59.30441836380989</v>
+        <v>1078.871690408998</v>
       </c>
       <c r="S26">
-        <v>0.003798325463794326</v>
+        <v>0.005399926478121925</v>
       </c>
       <c r="T26">
-        <v>0.003798325463794326</v>
+        <v>0.005399926478121925</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N27">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P27">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q27">
-        <v>137.9833910953621</v>
+        <v>166.6397027183382</v>
       </c>
       <c r="R27">
-        <v>137.9833910953621</v>
+        <v>1499.757324465044</v>
       </c>
       <c r="S27">
-        <v>0.00883755110391635</v>
+        <v>0.007506526827176205</v>
       </c>
       <c r="T27">
-        <v>0.00883755110391635</v>
+        <v>0.007506526827176206</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N28">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O28">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P28">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q28">
-        <v>194.7658857823211</v>
+        <v>390.199346903345</v>
       </c>
       <c r="R28">
-        <v>194.7658857823211</v>
+        <v>3511.794122130105</v>
       </c>
       <c r="S28">
-        <v>0.01247435256690581</v>
+        <v>0.01757709488012823</v>
       </c>
       <c r="T28">
-        <v>0.01247435256690581</v>
+        <v>0.01757709488012824</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N29">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O29">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P29">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q29">
-        <v>457.4068780219262</v>
+        <v>545.1721787941702</v>
       </c>
       <c r="R29">
-        <v>457.4068780219262</v>
+        <v>4906.549609147532</v>
       </c>
       <c r="S29">
-        <v>0.02929596546158139</v>
+        <v>0.02455807060857286</v>
       </c>
       <c r="T29">
-        <v>0.02929596546158139</v>
+        <v>0.02455807060857287</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N30">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O30">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P30">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q30">
-        <v>24.47435039751545</v>
+        <v>29.19715114236567</v>
       </c>
       <c r="R30">
-        <v>24.47435039751545</v>
+        <v>262.774360281291</v>
       </c>
       <c r="S30">
-        <v>0.001567531575040906</v>
+        <v>0.001315227972398245</v>
       </c>
       <c r="T30">
-        <v>0.001567531575040906</v>
+        <v>0.001315227972398245</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N31">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O31">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P31">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q31">
-        <v>13.0924482449485</v>
+        <v>16.99344319332511</v>
       </c>
       <c r="R31">
-        <v>13.0924482449485</v>
+        <v>152.940988739926</v>
       </c>
       <c r="S31">
-        <v>0.0008385442589981501</v>
+        <v>0.0007654942677880331</v>
       </c>
       <c r="T31">
-        <v>0.0008385442589981501</v>
+        <v>0.0007654942677880331</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.52473581116988</v>
+        <v>2.593531333333333</v>
       </c>
       <c r="N32">
-        <v>1.52473581116988</v>
+        <v>7.780594</v>
       </c>
       <c r="O32">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="P32">
-        <v>0.06685748404402371</v>
+        <v>0.09453265360553549</v>
       </c>
       <c r="Q32">
-        <v>60.50807564049143</v>
+        <v>146.095451039788</v>
       </c>
       <c r="R32">
-        <v>60.50807564049143</v>
+        <v>1314.859059358092</v>
       </c>
       <c r="S32">
-        <v>0.003875417225417451</v>
+        <v>0.006581081246959589</v>
       </c>
       <c r="T32">
-        <v>0.003875417225417451</v>
+        <v>0.00658108124695959</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.54759769262227</v>
+        <v>3.605310666666667</v>
       </c>
       <c r="N33">
-        <v>3.54759769262227</v>
+        <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605671</v>
       </c>
       <c r="P33">
-        <v>0.1555570836544631</v>
+        <v>0.1314114003605672</v>
       </c>
       <c r="Q33">
-        <v>140.783936439796</v>
+        <v>203.089695202664</v>
       </c>
       <c r="R33">
-        <v>140.783936439796</v>
+        <v>1827.807256823976</v>
       </c>
       <c r="S33">
-        <v>0.009016920246853015</v>
+        <v>0.009148469545331642</v>
       </c>
       <c r="T33">
-        <v>0.009016920246853015</v>
+        <v>0.009148469545331647</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.00749402893983</v>
+        <v>8.442105</v>
       </c>
       <c r="N34">
-        <v>5.00749402893983</v>
+        <v>25.326315</v>
       </c>
       <c r="O34">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787555</v>
       </c>
       <c r="P34">
-        <v>0.2195714494850859</v>
+        <v>0.3077096379787556</v>
       </c>
       <c r="Q34">
-        <v>198.7189028110537</v>
+        <v>475.54973477613</v>
       </c>
       <c r="R34">
-        <v>198.7189028110537</v>
+        <v>4279.94761298517</v>
       </c>
       <c r="S34">
-        <v>0.01272753514003109</v>
+        <v>0.02142182675269926</v>
       </c>
       <c r="T34">
-        <v>0.01272753514003109</v>
+        <v>0.02142182675269926</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.7600790368942</v>
+        <v>11.79499866666667</v>
       </c>
       <c r="N35">
-        <v>11.7600790368942</v>
+        <v>35.384996</v>
       </c>
       <c r="O35">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="P35">
-        <v>0.5156626418857102</v>
+        <v>0.4299205908573637</v>
       </c>
       <c r="Q35">
-        <v>466.6905221807442</v>
+        <v>664.420602162392</v>
       </c>
       <c r="R35">
-        <v>466.6905221807442</v>
+        <v>5979.785419461528</v>
       </c>
       <c r="S35">
-        <v>0.02989056368846094</v>
+        <v>0.02992978859960307</v>
       </c>
       <c r="T35">
-        <v>0.02989056368846094</v>
+        <v>0.02992978859960308</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.629243478576699</v>
+        <v>0.631691</v>
       </c>
       <c r="N36">
-        <v>0.629243478576699</v>
+        <v>1.895073</v>
       </c>
       <c r="O36">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="P36">
-        <v>0.02759142634452127</v>
+        <v>0.02302475613895327</v>
       </c>
       <c r="Q36">
-        <v>24.9710879216457</v>
+        <v>35.583600003846</v>
       </c>
       <c r="R36">
-        <v>24.9710879216457</v>
+        <v>320.252400034614</v>
       </c>
       <c r="S36">
-        <v>0.001599346587122324</v>
+        <v>0.001602914813691531</v>
       </c>
       <c r="T36">
-        <v>0.001599346587122324</v>
+        <v>0.001602914813691532</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.336611086420219</v>
+        <v>0.3676593333333333</v>
       </c>
       <c r="N37">
-        <v>0.336611086420219</v>
+        <v>1.102978</v>
       </c>
       <c r="O37">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="P37">
-        <v>0.01475991458619572</v>
+        <v>0.01340096105882486</v>
       </c>
       <c r="Q37">
-        <v>13.35817584222354</v>
+        <v>20.710509814156</v>
       </c>
       <c r="R37">
-        <v>13.35817584222354</v>
+        <v>186.394588327404</v>
       </c>
       <c r="S37">
-        <v>0.0008555635625679259</v>
+        <v>0.0009329349188004146</v>
       </c>
       <c r="T37">
-        <v>0.0008555635625679259</v>
+        <v>0.0009329349188004147</v>
       </c>
     </row>
   </sheetData>
